--- a/Book11.xlsx
+++ b/Book11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Отчет:</t>
   </si>
@@ -91,7 +91,7 @@
     <t>17.01.2024</t>
   </si>
   <si>
-    <t>30.01.2026</t>
+    <t>06.02.2026</t>
   </si>
   <si>
     <t>2 ч 3 мин</t>
@@ -100,46 +100,28 @@
     <t>41 мин 18 сек</t>
   </si>
   <si>
-    <t>1001</t>
-  </si>
-  <si>
     <t>101</t>
   </si>
   <si>
     <t>201</t>
   </si>
   <si>
-    <t>0,00052</t>
-  </si>
-  <si>
     <t>15.01.2024 00:20</t>
   </si>
   <si>
-    <t>1002</t>
-  </si>
-  <si>
     <t>102</t>
   </si>
   <si>
     <t>202</t>
   </si>
   <si>
-    <t>0,00147</t>
-  </si>
-  <si>
     <t>16.01.2024 00:20</t>
   </si>
   <si>
-    <t>1003</t>
-  </si>
-  <si>
     <t>103</t>
   </si>
   <si>
     <t>203</t>
-  </si>
-  <si>
-    <t>0,08406</t>
   </si>
   <si>
     <t>17.01.2024 00:20</t>
@@ -188,11 +170,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
       <alignment/>
@@ -544,54 +526,54 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="true">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="4">
+        <v>0.0005208333333333333</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="true">
+      <c r="A13" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="true">
-      <c r="A13" s="4" t="s">
+      <c r="D13" s="4">
+        <v>0.0014699074074074074</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="14" ht="15.75" customHeight="true">
+      <c r="A14" s="3">
+        <v>1003</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="4">
+        <v>0.0840625</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="true">
-      <c r="A14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
